--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.924731</v>
+        <v>37.08402533333333</v>
       </c>
       <c r="H2">
-        <v>128.774193</v>
+        <v>111.252076</v>
       </c>
       <c r="I2">
-        <v>0.8780494305754949</v>
+        <v>0.8732570105511104</v>
       </c>
       <c r="J2">
-        <v>0.878049430575495</v>
+        <v>0.8732570105511105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>201.7250594993734</v>
+        <v>470.1956751156658</v>
       </c>
       <c r="R2">
-        <v>1815.52553549436</v>
+        <v>4231.761076040992</v>
       </c>
       <c r="S2">
-        <v>0.8482392350028691</v>
+        <v>0.8620283353655576</v>
       </c>
       <c r="T2">
-        <v>0.8482392350028691</v>
+        <v>0.8620283353655579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.924731</v>
+        <v>37.08402533333333</v>
       </c>
       <c r="H3">
-        <v>128.774193</v>
+        <v>111.252076</v>
       </c>
       <c r="I3">
-        <v>0.8780494305754949</v>
+        <v>0.8732570105511104</v>
       </c>
       <c r="J3">
-        <v>0.878049430575495</v>
+        <v>0.8732570105511105</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>7.089348414254332</v>
+        <v>6.124711094660888</v>
       </c>
       <c r="R3">
-        <v>63.80413572828899</v>
+        <v>55.122399851948</v>
       </c>
       <c r="S3">
-        <v>0.02981019557262581</v>
+        <v>0.01122867518555273</v>
       </c>
       <c r="T3">
-        <v>0.02981019557262581</v>
+        <v>0.01122867518555273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.445889</v>
       </c>
       <c r="I4">
-        <v>0.003040303133950735</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="J4">
-        <v>0.003040303133950736</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>0.6984861093644444</v>
+        <v>1.884504873254222</v>
       </c>
       <c r="R4">
-        <v>6.28637498428</v>
+        <v>16.960543859288</v>
       </c>
       <c r="S4">
-        <v>0.002937083397262636</v>
+        <v>0.003454937348115761</v>
       </c>
       <c r="T4">
-        <v>0.002937083397262636</v>
+        <v>0.003454937348115762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.445889</v>
       </c>
       <c r="I5">
-        <v>0.003040303133950735</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="J5">
-        <v>0.003040303133950736</v>
+        <v>0.003499940937530227</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,16 +741,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
         <v>0.02454732894411111</v>
@@ -759,10 +759,10 @@
         <v>0.220925960497</v>
       </c>
       <c r="S5">
-        <v>0.0001032197366880998</v>
+        <v>4.500358941446558E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001032197366880998</v>
+        <v>4.500358941446558E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8040363333333335</v>
+        <v>0.5778596666666668</v>
       </c>
       <c r="H6">
-        <v>2.412109000000001</v>
+        <v>1.733579</v>
       </c>
       <c r="I6">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="J6">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>3.778574108742223</v>
+        <v>7.326796744640891</v>
       </c>
       <c r="R6">
-        <v>34.00716697868001</v>
+        <v>65.94117070176802</v>
       </c>
       <c r="S6">
-        <v>0.01588862989732373</v>
+        <v>0.01343250637044012</v>
       </c>
       <c r="T6">
-        <v>0.01588862989732373</v>
+        <v>0.01343250637044013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8040363333333335</v>
+        <v>0.5778596666666668</v>
       </c>
       <c r="H7">
-        <v>2.412109000000001</v>
+        <v>1.733579</v>
       </c>
       <c r="I7">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="J7">
-        <v>0.01644701383557517</v>
+        <v>0.01360747654807074</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>0.1327927647285556</v>
+        <v>0.09543795420744447</v>
       </c>
       <c r="R7">
-        <v>1.195134882557</v>
+        <v>0.8589415878670001</v>
       </c>
       <c r="S7">
-        <v>0.000558383938251439</v>
+        <v>0.0001749701776306207</v>
       </c>
       <c r="T7">
-        <v>0.0005583839382514391</v>
+        <v>0.0001749701776306207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.009066</v>
+        <v>4.655821</v>
       </c>
       <c r="H8">
-        <v>15.027198</v>
+        <v>13.967463</v>
       </c>
       <c r="I8">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="J8">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>23.54013906077333</v>
+        <v>59.03207320767734</v>
       </c>
       <c r="R8">
-        <v>211.86125154696</v>
+        <v>531.288658869096</v>
       </c>
       <c r="S8">
-        <v>0.09898457632544934</v>
+        <v>0.1082258355266109</v>
       </c>
       <c r="T8">
-        <v>0.09898457632544935</v>
+        <v>0.108225835526611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.009066</v>
+        <v>4.655821</v>
       </c>
       <c r="H9">
-        <v>15.027198</v>
+        <v>13.967463</v>
       </c>
       <c r="I9">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="J9">
-        <v>0.1024632524549792</v>
+        <v>0.1096355719632885</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>0.8272856527393332</v>
+        <v>0.7689445327776667</v>
       </c>
       <c r="R9">
-        <v>7.445570874653999</v>
+        <v>6.920500794999001</v>
       </c>
       <c r="S9">
-        <v>0.003478676129529862</v>
+        <v>0.001409736436677603</v>
       </c>
       <c r="T9">
-        <v>0.003478676129529863</v>
+        <v>0.001409736436677603</v>
       </c>
     </row>
   </sheetData>
